--- a/Base de données/insert into/AU_AU.xlsx
+++ b/Base de données/insert into/AU_AU.xlsx
@@ -689,11 +689,13 @@
   <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I256"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
